--- a/data/IEEE9/ieee9/ieee9_2021.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664489C-F04C-40CE-87F4-76BEB25F2BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6E9928-63E2-48B5-B63B-588E2F26A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="4020" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="2070" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4336,7 +4336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
